--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -47,13 +47,13 @@
     <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
   </si>
   <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.1</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -357,7 +357,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,23 +365,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -389,10 +390,10 @@
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.18359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,7 +444,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -457,13 +458,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -503,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -523,7 +524,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -543,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
@@ -563,7 +564,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -583,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -603,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -623,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -663,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -683,7 +684,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
@@ -703,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -723,7 +724,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -743,7 +744,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -843,7 +844,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -863,7 +864,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -883,7 +884,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -903,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1023,7 +1024,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1043,7 +1044,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1063,7 +1064,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1103,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>79</v>
@@ -1123,7 +1124,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>79</v>
@@ -1143,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>79</v>
@@ -1163,7 +1164,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>79</v>
@@ -1183,7 +1184,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>79</v>
@@ -1283,7 +1284,7 @@
         <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>79</v>
@@ -1303,7 +1304,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>79</v>
@@ -1323,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>79</v>
@@ -1343,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>79</v>
@@ -1463,7 +1464,7 @@
         <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>79</v>
@@ -1483,7 +1484,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>79</v>
@@ -1503,7 +1504,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>79</v>
@@ -1532,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1543,7 +1544,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>82</v>
@@ -1563,7 +1564,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>82</v>
@@ -1592,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1612,7 +1613,7 @@
         <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1623,7 +1624,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>82</v>
@@ -1643,7 +1644,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>82</v>
@@ -1692,7 +1693,7 @@
         <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1732,7 +1733,7 @@
         <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1743,7 +1744,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>82</v>
@@ -1763,7 +1764,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>82</v>
@@ -1783,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>82</v>
@@ -1803,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>82</v>
@@ -1852,7 +1853,7 @@
         <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1892,7 +1893,7 @@
         <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -1912,7 +1913,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -1923,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>82</v>
@@ -1943,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>82</v>
@@ -1963,7 +1964,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>82</v>
@@ -1983,7 +1984,7 @@
         <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>86</v>
@@ -2003,7 +2004,7 @@
         <v>88</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>86</v>
@@ -2023,7 +2024,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>86</v>
@@ -2043,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>86</v>
@@ -2063,7 +2064,7 @@
         <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>86</v>
@@ -2083,7 +2084,7 @@
         <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>86</v>
@@ -2103,7 +2104,7 @@
         <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>86</v>
@@ -2123,7 +2124,7 @@
         <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>86</v>
@@ -2143,7 +2144,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>86</v>
@@ -2158,273 +2159,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD75BE39-FCAB-402E-B61C-69460A75FBF5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0888202C-0106-45D5-A7CD-6B6864647152}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3586696-9DF4-47BE-9E61-C60B1A0845DB}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,27 @@
     <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -324,6 +345,12 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -382,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -458,59 +485,59 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -518,19 +545,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -538,19 +565,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -558,19 +585,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -578,19 +605,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -598,59 +625,59 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -658,19 +685,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -678,19 +705,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -698,19 +725,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -718,19 +745,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -738,19 +765,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -758,19 +785,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -778,19 +805,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -798,19 +825,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -818,19 +845,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -838,19 +865,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -858,19 +885,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -878,19 +905,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -898,19 +925,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -918,19 +945,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -938,19 +965,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -958,19 +985,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -978,19 +1005,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -998,19 +1025,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1018,19 +1045,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1038,19 +1065,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1058,19 +1085,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1078,19 +1105,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1098,19 +1125,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1118,19 +1145,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1138,19 +1165,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1158,19 +1185,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1178,19 +1205,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1198,19 +1225,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1218,19 +1245,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1238,19 +1265,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1258,19 +1285,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1278,19 +1305,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1298,19 +1325,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1318,19 +1345,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1338,19 +1365,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1358,19 +1385,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1378,19 +1405,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1398,19 +1425,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1418,19 +1445,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1438,19 +1465,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1458,19 +1485,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1478,19 +1505,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1498,19 +1525,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1518,39 +1545,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1558,19 +1585,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1578,59 +1605,59 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1638,19 +1665,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1658,59 +1685,59 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1718,59 +1745,59 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1778,19 +1805,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1798,19 +1825,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1818,119 +1845,119 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1938,19 +1965,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1958,19 +1985,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -1978,39 +2005,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2018,59 +2045,59 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2078,19 +2105,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2098,19 +2125,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2118,19 +2145,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2138,21 +2165,181 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="91">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
@@ -285,72 +285,6 @@
   </si>
   <si>
     <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -409,16 +343,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.9140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2143,206 +2077,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,72 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -343,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.9140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -754,7 +820,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -894,7 +960,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -934,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1054,7 +1120,7 @@
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1094,7 +1160,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1114,7 +1180,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1634,7 +1700,7 @@
         <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -1694,7 +1760,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -1714,7 +1780,7 @@
         <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1794,7 +1860,7 @@
         <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1834,7 +1900,7 @@
         <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -1954,7 +2020,7 @@
         <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -1994,7 +2060,7 @@
         <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -2014,7 +2080,7 @@
         <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -2074,6 +2140,206 @@
         <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Data matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
   </si>
   <si>
     <t>Generalità Sposo</t>
@@ -409,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -805,59 +814,59 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -865,19 +874,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -885,19 +894,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -905,19 +914,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -925,19 +934,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -945,99 +954,99 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1045,19 +1054,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1065,19 +1074,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1085,19 +1094,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1105,79 +1114,79 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>19</v>
@@ -1185,39 +1194,39 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1225,19 +1234,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1245,19 +1254,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1265,19 +1274,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1285,19 +1294,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1305,19 +1314,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1325,19 +1334,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1345,19 +1354,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1365,19 +1374,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1385,19 +1394,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1405,19 +1414,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1425,19 +1434,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1445,19 +1454,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1465,19 +1474,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1485,19 +1494,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1505,19 +1514,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1525,19 +1534,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1545,19 +1554,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1565,19 +1574,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1585,19 +1594,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1605,19 +1614,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1625,19 +1634,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1645,19 +1654,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1665,19 +1674,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1685,19 +1694,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1705,19 +1714,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1725,7 +1734,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>43</v>
@@ -1734,10 +1743,10 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1745,19 +1754,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1765,19 +1774,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1785,19 +1794,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1805,19 +1814,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1825,19 +1834,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1845,19 +1854,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1865,19 +1874,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1885,19 +1894,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1905,19 +1914,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1925,19 +1934,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1945,19 +1954,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1965,19 +1974,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1985,19 +1994,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2005,19 +2014,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2025,19 +2034,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2045,19 +2054,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2065,19 +2074,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2085,19 +2094,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2105,19 +2114,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2125,19 +2134,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2145,19 +2154,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2165,7 +2174,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>95</v>
@@ -2174,10 +2183,10 @@
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2185,19 +2194,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2205,19 +2214,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2225,19 +2234,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2245,19 +2254,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2265,19 +2274,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2285,19 +2294,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2305,19 +2314,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2325,21 +2334,41 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
     <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,205 +461,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -671,1705 +714,1963 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -1140,7 +1140,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>47</v>
@@ -1163,7 +1163,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>47</v>
@@ -1172,7 +1172,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
@@ -1186,7 +1186,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1209,7 +1209,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1218,7 +1218,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1646,7 +1646,7 @@
         <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>92</v>
@@ -1669,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>92</v>
@@ -1692,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>92</v>
@@ -1715,7 +1715,7 @@
         <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>92</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.1</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -715,1962 +718,1962 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+    <t>evento.trascrizioneMatrimonio.tipoDichiarazione,=,3</t>
   </si>
   <si>
     <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
@@ -442,7 +442,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>28</v>
@@ -1083,7 +1083,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1129,7 +1129,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1175,7 +1175,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1221,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1267,7 +1267,7 @@
         <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>28</v>
@@ -1313,7 +1313,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1336,7 +1336,7 @@
         <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1934,7 +1934,7 @@
         <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2003,7 +2003,7 @@
         <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2026,7 +2026,7 @@
         <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2118,7 +2118,7 @@
         <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2164,7 +2164,7 @@
         <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2302,7 +2302,7 @@
         <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2348,7 +2348,7 @@
         <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2371,7 +2371,7 @@
         <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -122,6 +122,60 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -143,15 +197,6 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>Data matrimonio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio</t>
-  </si>
-  <si>
-    <t>dataEvento</t>
-  </si>
-  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
@@ -366,12 +411,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -430,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -847,10 +886,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -864,16 +903,16 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -887,13 +926,13 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
@@ -907,19 +946,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -930,19 +969,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -953,19 +992,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -976,19 +1015,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -999,19 +1038,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1022,19 +1061,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1045,19 +1084,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1068,7 +1107,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
@@ -1077,10 +1116,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1091,19 +1130,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1114,19 +1153,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1137,19 +1176,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1160,19 +1199,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1183,19 +1222,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1206,19 +1245,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1229,19 +1268,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1252,19 +1291,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1275,19 +1314,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1298,19 +1337,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1360,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1383,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1475,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1498,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1521,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1567,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1590,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,7 +1613,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
@@ -1583,10 +1622,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1659,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1682,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1705,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1728,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1751,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1774,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1843,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1866,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1935,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,22 +1958,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -1942,19 +1981,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +2004,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,22 +2027,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2011,22 +2050,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2034,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2096,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,22 +2119,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2103,22 +2142,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2126,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2188,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
@@ -2172,22 +2211,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2195,19 +2234,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2257,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2280,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,22 +2303,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2287,22 +2326,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2310,22 +2349,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2333,22 +2372,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2356,22 +2395,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2379,19 +2418,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2441,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2464,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,22 +2487,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2471,19 +2510,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,22 +2533,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2517,22 +2556,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2540,19 +2579,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2602,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2671,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,24 +2694,185 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -2628,10 +2631,10 @@
         <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>111</v>
@@ -2640,7 +2643,7 @@
         <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2648,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>52</v>
@@ -2864,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>53</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,7 +170,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -472,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1343,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1352,7 +1355,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1366,7 +1369,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1375,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1389,7 +1392,7 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1398,7 +1401,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1412,7 +1415,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1421,7 +1424,7 @@
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1435,7 +1438,7 @@
         <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1444,7 +1447,7 @@
         <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1458,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1467,7 +1470,7 @@
         <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1481,7 +1484,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1490,7 +1493,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1504,7 +1507,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1513,7 +1516,7 @@
         <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1527,7 +1530,7 @@
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1536,7 +1539,7 @@
         <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1550,16 +1553,16 @@
         <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1573,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
@@ -1582,7 +1585,7 @@
         <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1596,7 +1599,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>22</v>
@@ -1605,7 +1608,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1619,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1665,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1734,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1757,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1895,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1918,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1941,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1964,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1987,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2010,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2033,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2056,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2079,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,22 +2125,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2145,19 +2148,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,22 +2171,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2191,22 +2194,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2214,22 +2217,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2237,22 +2240,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2260,22 +2263,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2283,19 +2286,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,22 +2309,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2329,19 +2332,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2355,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>21</v>
@@ -2375,19 +2378,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,22 +2401,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2421,22 +2424,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2444,19 +2447,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2470,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,22 +2493,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2513,19 +2516,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,22 +2539,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>21</v>
@@ -2582,19 +2585,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,22 +2608,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2628,19 +2631,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
@@ -2651,19 +2654,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2677,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,22 +2700,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2720,19 +2723,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2746,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2769,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2792,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2815,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2838,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,24 +2861,93 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -475,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1642,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1827,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,22 +2195,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2194,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,22 +2264,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2263,22 +2287,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2286,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>21</v>
@@ -2378,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,22 +2425,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2424,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2447,22 +2471,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2470,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2562,22 +2586,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2585,22 +2609,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2608,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2631,22 +2655,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2654,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,22 +2724,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2723,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,22 +2770,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2769,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,22 +2816,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2815,22 +2839,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2838,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,22 +2908,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2907,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2930,24 +2954,208 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -266,13 +272,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -366,6 +372,84 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto di Nascita dello sposo</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita della sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -499,17 +583,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1189,7 +1273,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -1281,7 +1365,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1370,7 +1454,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1379,7 +1463,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1603,7 +1687,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -1672,7 +1756,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1758,19 +1842,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1865,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1888,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1911,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1934,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1957,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1980,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +2003,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +2026,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +2049,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2072,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2095,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2118,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2141,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2164,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2302,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2466,19 @@
         <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2405,16 +2489,16 @@
         <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,22 +2532,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2471,22 +2555,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2494,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,22 +2647,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2586,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,22 +2693,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2632,22 +2716,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2655,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,22 +2854,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2793,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2900,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2839,22 +2923,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2862,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,22 +2992,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2931,19 +3015,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +3038,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,22 +3061,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3000,19 +3084,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,22 +3153,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3092,22 +3176,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3115,19 +3199,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,24 +3222,645 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1710,7 +1716,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>63</v>
@@ -1779,7 +1785,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>63</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,16 +2518,16 @@
         <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2535,16 +2541,16 @@
         <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
         <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3087,16 +3093,16 @@
         <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3107,22 +3113,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3153,22 +3159,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3176,22 +3182,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3199,22 +3205,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3222,22 +3228,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3268,22 +3274,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>21</v>
@@ -3337,22 +3343,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3360,22 +3366,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3383,22 +3389,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3406,19 +3412,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3452,22 +3458,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3475,22 +3481,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3498,22 +3504,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3521,22 +3527,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3544,19 +3550,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
@@ -3567,19 +3573,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3590,22 +3596,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3613,19 +3619,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -3636,19 +3642,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3682,22 +3688,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3705,19 +3711,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3734,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3757,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3780,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3803,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3826,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3843,24 +3849,93 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -282,6 +285,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -589,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -836,660 +845,660 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>85</v>
@@ -1498,1073 +1507,1073 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2573,21 +2582,21 @@
         <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2596,21 +2605,21 @@
         <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2619,504 +2628,504 @@
         <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3125,818 +3134,910 @@
         <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>28</v>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -1380,7 +1380,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -1403,7 +1403,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>64</v>
@@ -2070,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>124</v>
@@ -2093,7 +2093,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>124</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
         <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>29</v>
@@ -3217,16 +3223,16 @@
         <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,22 +3243,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,22 +3289,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3306,22 +3312,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -3329,22 +3335,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3352,22 +3358,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>29</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,22 +3404,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>22</v>
@@ -3467,22 +3473,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>29</v>
@@ -3490,22 +3496,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3513,22 +3519,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3536,22 +3542,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3559,22 +3565,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>29</v>
@@ -3582,22 +3588,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>22</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3674,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3720,22 +3726,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>29</v>
@@ -3743,22 +3749,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>29</v>
@@ -3766,22 +3772,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>29</v>
@@ -3789,22 +3795,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>29</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,22 +3841,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>29</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,24 +4025,70 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,16 +2654,16 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,16 +2677,16 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3252,19 @@
         <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3269,16 +3275,16 @@
         <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,22 +3295,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,22 +3341,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3358,22 +3364,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>29</v>
@@ -3381,22 +3387,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>29</v>
@@ -3404,22 +3410,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,22 +3456,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>22</v>
@@ -3519,22 +3525,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3542,22 +3548,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3565,22 +3571,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>29</v>
@@ -3588,22 +3594,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3611,22 +3617,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>29</v>
@@ -3634,22 +3640,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3657,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3703,19 +3709,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3726,19 +3732,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3749,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>22</v>
@@ -3772,22 +3778,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>29</v>
@@ -3795,22 +3801,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>29</v>
@@ -3818,22 +3824,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>29</v>
@@ -3841,22 +3847,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>29</v>
@@ -3864,19 +3870,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,22 +3893,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>29</v>
@@ -3910,19 +3916,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3939,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3962,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3985,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +4008,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4031,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4054,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,24 +4077,70 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,12 +381,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -610,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1961,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1978,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2654,16 +2648,16 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,16 +2671,16 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3246,19 @@
         <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3275,16 +3269,16 @@
         <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,22 +3289,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3318,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,22 +3335,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3364,22 +3358,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>29</v>
@@ -3387,22 +3381,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>29</v>
@@ -3410,22 +3404,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3433,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,22 +3450,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3479,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>22</v>
@@ -3525,22 +3519,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3548,22 +3542,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3571,22 +3565,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>29</v>
@@ -3594,22 +3588,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3617,22 +3611,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>29</v>
@@ -3640,22 +3634,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3663,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3686,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3709,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3732,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3755,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>22</v>
@@ -3778,22 +3772,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>29</v>
@@ -3801,22 +3795,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>29</v>
@@ -3824,22 +3818,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>29</v>
@@ -3847,22 +3841,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>29</v>
@@ -3870,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3893,22 +3887,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>29</v>
@@ -3916,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3939,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3985,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4008,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4031,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4054,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,70 +4071,24 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1369,7 +1381,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>64</v>
@@ -1415,7 +1427,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>64</v>
@@ -1527,7 +1539,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1536,7 +1548,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1550,7 +1562,7 @@
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1559,7 +1571,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1573,7 +1585,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1806,7 +1818,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>64</v>
@@ -1829,7 +1841,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>64</v>
@@ -1875,7 +1887,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>64</v>
@@ -1898,7 +1910,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>64</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2502,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2640,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2663,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2686,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2939,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3215,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3261,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,22 +3307,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3318,19 +3330,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3353,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3376,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3399,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>22</v>
@@ -3410,22 +3422,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3433,19 +3445,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3468,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,22 +3491,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>29</v>
@@ -3502,22 +3514,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3525,22 +3537,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3548,19 +3560,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>22</v>
@@ -3571,22 +3583,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>29</v>
@@ -3594,19 +3606,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3652,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>22</v>
@@ -3663,22 +3675,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>29</v>
@@ -3686,22 +3698,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>29</v>
@@ -3709,19 +3721,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3732,19 +3744,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3755,22 +3767,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>29</v>
@@ -3778,22 +3790,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>29</v>
@@ -3801,19 +3813,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>22</v>
@@ -3824,22 +3836,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>29</v>
@@ -3847,22 +3859,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>29</v>
@@ -3870,19 +3882,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3893,19 +3905,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>22</v>
@@ -3916,19 +3928,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3939,22 +3951,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>29</v>
@@ -3962,22 +3974,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>29</v>
@@ -3985,19 +3997,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4008,19 +4020,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4031,22 +4043,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>29</v>
@@ -4054,19 +4066,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,19 +4089,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4100,19 +4112,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4123,24 +4135,162 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>29</v>
       </c>
     </row>
